--- a/data/licor/raw_licor/yadi/2023-12-06/2023-12-06-1456_logdata.xlsx
+++ b/data/licor/raw_licor/yadi/2023-12-06/2023-12-06-1456_logdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55gga\Documents\git\qeTemperature\data\licor\raw_licor\yadi\2023-12-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB2E03A-8BE2-441C-B6E0-9A04A92BAC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8566D0-D7CE-4D56-ABA0-4C7AC5DAA907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="608">
   <si>
     <t>File opened</t>
   </si>
@@ -1858,45 +1858,6 @@
   </si>
   <si>
     <t>RECT-186-20231206-19_53_02</t>
-  </si>
-  <si>
-    <t>ely-1-6</t>
-  </si>
-  <si>
-    <t>ely-1-7</t>
-  </si>
-  <si>
-    <t>ely-1-8</t>
-  </si>
-  <si>
-    <t>ely-1-9</t>
-  </si>
-  <si>
-    <t>ely-1-10</t>
-  </si>
-  <si>
-    <t>ely-1-11</t>
-  </si>
-  <si>
-    <t>ely-1-12</t>
-  </si>
-  <si>
-    <t>ely-1-13</t>
-  </si>
-  <si>
-    <t>ely-1-14</t>
-  </si>
-  <si>
-    <t>ely-1-15</t>
-  </si>
-  <si>
-    <t>ely-1-16</t>
-  </si>
-  <si>
-    <t>ely-1-17</t>
-  </si>
-  <si>
-    <t>ely-1-18</t>
   </si>
 </sst>
 </file>
@@ -2246,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:KJ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KJ46" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:KJ72"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5817,7 +5778,7 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>608</v>
+        <v>487</v>
       </c>
       <c r="H20">
         <v>1701811707</v>
@@ -6655,7 +6616,7 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>609</v>
+        <v>487</v>
       </c>
       <c r="H21">
         <v>1701811808</v>
@@ -7493,7 +7454,7 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>610</v>
+        <v>487</v>
       </c>
       <c r="H22">
         <v>1701812495.25</v>
@@ -8331,7 +8292,7 @@
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>611</v>
+        <v>487</v>
       </c>
       <c r="H23">
         <v>1701812631</v>
@@ -9169,7 +9130,7 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>612</v>
+        <v>487</v>
       </c>
       <c r="H24">
         <v>1701812739.5</v>
@@ -10007,7 +9968,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>613</v>
+        <v>487</v>
       </c>
       <c r="H25">
         <v>1701813056.25</v>
@@ -10845,7 +10806,7 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>614</v>
+        <v>487</v>
       </c>
       <c r="H26">
         <v>1701813163.75</v>
@@ -11683,7 +11644,7 @@
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>615</v>
+        <v>487</v>
       </c>
       <c r="H27">
         <v>1701813255.849999</v>
@@ -12521,7 +12482,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="H28">
         <v>1701813649.349999</v>
@@ -13359,7 +13320,7 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>617</v>
+        <v>487</v>
       </c>
       <c r="H29">
         <v>1701813712.349999</v>
@@ -14197,7 +14158,7 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="H30">
         <v>1701813796.099999</v>
@@ -15035,7 +14996,7 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>619</v>
+        <v>487</v>
       </c>
       <c r="H31">
         <v>1701814347.099999</v>
@@ -15873,7 +15834,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>620</v>
+        <v>487</v>
       </c>
       <c r="H32">
         <v>1701814485.099999</v>
@@ -31801,7 +31762,7 @@
         <v>1701820707.099999</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51:I82" si="50">(J51)/1000</f>
+        <f t="shared" ref="I51:I72" si="50">(J51)/1000</f>
         <v>4.0024638125536523E-3</v>
       </c>
       <c r="J51">
@@ -31813,15 +31774,15 @@
         <v>3.8710085184931282</v>
       </c>
       <c r="L51">
-        <f t="shared" ref="L51:L82" si="53">DQ51 - IF(AT51&gt;1, K51*DK51*100/(AV51*EE51), 0)</f>
+        <f t="shared" ref="L51:L72" si="53">DQ51 - IF(AT51&gt;1, K51*DK51*100/(AV51*EE51), 0)</f>
         <v>417.78612903225809</v>
       </c>
       <c r="M51">
-        <f t="shared" ref="M51:M82" si="54">((S51-I51/2)*L51-K51)/(S51+I51/2)</f>
+        <f t="shared" ref="M51:M72" si="54">((S51-I51/2)*L51-K51)/(S51+I51/2)</f>
         <v>277.27421340342499</v>
       </c>
       <c r="N51">
-        <f t="shared" ref="N51:N82" si="55">M51*(DX51+DY51)/1000</f>
+        <f t="shared" ref="N51:N72" si="55">M51*(DX51+DY51)/1000</f>
         <v>25.210433274470923</v>
       </c>
       <c r="O51">
@@ -31829,7 +31790,7 @@
         <v>37.986112014111796</v>
       </c>
       <c r="P51">
-        <f t="shared" ref="P51:P82" si="57">2/((1/R51-1/Q51)+SIGN(R51)*SQRT((1/R51-1/Q51)*(1/R51-1/Q51) + 4*DL51/((DL51+1)*(DL51+1))*(2*1/R51*1/Q51-1/Q51*1/Q51)))</f>
+        <f t="shared" ref="P51:P72" si="57">2/((1/R51-1/Q51)+SIGN(R51)*SQRT((1/R51-1/Q51)*(1/R51-1/Q51) + 4*DL51/((DL51+1)*(DL51+1))*(2*1/R51*1/Q51-1/Q51*1/Q51)))</f>
         <v>6.0522064278399477E-2</v>
       </c>
       <c r="Q51">
@@ -31849,19 +31810,19 @@
         <v>241.73877488152976</v>
       </c>
       <c r="U51">
-        <f t="shared" ref="U51:U82" si="62">(DZ51+(T51+2*0.95*0.0000000567*(((DZ51+$B$9)+273)^4-(DZ51+273)^4)-44100*I51)/(1.84*29.3*Q51+8*0.95*0.0000000567*(DZ51+273)^3))</f>
+        <f t="shared" ref="U51:U72" si="62">(DZ51+(T51+2*0.95*0.0000000567*(((DZ51+$B$9)+273)^4-(DZ51+273)^4)-44100*I51)/(1.84*29.3*Q51+8*0.95*0.0000000567*(DZ51+273)^3))</f>
         <v>42.0527810966543</v>
       </c>
       <c r="V51">
-        <f t="shared" ref="V51:V82" si="63">($C$9*EA51+$D$9*EB51+$E$9*U51)</f>
+        <f t="shared" ref="V51:V72" si="63">($C$9*EA51+$D$9*EB51+$E$9*U51)</f>
         <v>41.955051612903219</v>
       </c>
       <c r="W51">
-        <f t="shared" ref="W51:W82" si="64">0.61365*EXP(17.502*V51/(240.97+V51))</f>
+        <f t="shared" ref="W51:W72" si="64">0.61365*EXP(17.502*V51/(240.97+V51))</f>
         <v>8.2239197835608771</v>
       </c>
       <c r="X51">
-        <f t="shared" ref="X51:X82" si="65">(Y51/Z51*100)</f>
+        <f t="shared" ref="X51:X72" si="65">(Y51/Z51*100)</f>
         <v>30.85850789332088</v>
       </c>
       <c r="Y51">
@@ -31889,7 +31850,7 @@
         <v>-3.9301980106283674</v>
       </c>
       <c r="AE51">
-        <f t="shared" ref="AE51:AE82" si="72">T51+AD51+AB51+AC51</f>
+        <f t="shared" ref="AE51:AE72" si="72">T51+AD51+AB51+AC51</f>
         <v>16.337852845085258</v>
       </c>
       <c r="AF51">
@@ -31901,7 +31862,7 @@
         <v>4.000283143144185</v>
       </c>
       <c r="AH51">
-        <f t="shared" ref="AH51:AH82" si="75">(AI51 - AJ51 - DX51*1000/(8.314*(DZ51+273.15)) * AL51/DW51 * AK51) * DW51/(100*DK51) * (1000 - DT51)/1000</f>
+        <f t="shared" ref="AH51:AH72" si="75">(AI51 - AJ51 - DX51*1000/(8.314*(DZ51+273.15)) * AL51/DW51 * AK51) * DW51/(100*DK51) * (1000 - DT51)/1000</f>
         <v>3.8710085184931282</v>
       </c>
       <c r="AI51">
@@ -31917,7 +31878,7 @@
         <v>66.179488608650004</v>
       </c>
       <c r="AM51">
-        <f t="shared" ref="AM51:AM82" si="76">(AO51 - AN51 + DX51*1000/(8.314*(DZ51+273.15)) * AQ51/DW51 * AP51) * DW51/(100*DK51) * 1000/(1000 - AO51)</f>
+        <f t="shared" ref="AM51:AM72" si="76">(AO51 - AN51 + DX51*1000/(8.314*(DZ51+273.15)) * AQ51/DW51 * AP51) * DW51/(100*DK51) * 1000/(1000 - AO51)</f>
         <v>4.0024638125536525</v>
       </c>
       <c r="AN51">
@@ -31943,7 +31904,7 @@
         <v>1</v>
       </c>
       <c r="AU51">
-        <f t="shared" ref="AU51:AU82" si="78">(AT51-1)*100</f>
+        <f t="shared" ref="AU51:AU72" si="78">(AT51-1)*100</f>
         <v>0</v>
       </c>
       <c r="AV51">
@@ -31963,7 +31924,7 @@
         <v>0.7</v>
       </c>
       <c r="BA51">
-        <f t="shared" ref="BA51:BA82" si="80">1-AY51/AZ51</f>
+        <f t="shared" ref="BA51:BA72" si="80">1-AY51/AZ51</f>
         <v>0</v>
       </c>
       <c r="BB51">
@@ -31982,7 +31943,7 @@
         <v>330.16</v>
       </c>
       <c r="BG51">
-        <f t="shared" ref="BG51:BG82" si="81">1-BE51/BF51</f>
+        <f t="shared" ref="BG51:BG72" si="81">1-BE51/BF51</f>
         <v>0.11818112430336813</v>
       </c>
       <c r="BH51">
@@ -32019,11 +31980,11 @@
         <v>0</v>
       </c>
       <c r="BQ51">
-        <f t="shared" ref="BQ51:BQ82" si="88">IF(BP51&lt;&gt;0, BP51, BN51)</f>
+        <f t="shared" ref="BQ51:BQ72" si="88">IF(BP51&lt;&gt;0, BP51, BN51)</f>
         <v>330.16</v>
       </c>
       <c r="BR51">
-        <f t="shared" ref="BR51:BR82" si="89">1-BQ51/BF51</f>
+        <f t="shared" ref="BR51:BR72" si="89">1-BQ51/BF51</f>
         <v>0</v>
       </c>
       <c r="BS51" t="e">
@@ -32047,7 +32008,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="BX51" t="e">
-        <f t="shared" ref="BX51:BX82" si="95">(1-BW51)</f>
+        <f t="shared" ref="BX51:BX72" si="95">(1-BW51)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DG51">
@@ -32055,7 +32016,7 @@
         <v>1500.004838709677</v>
       </c>
       <c r="DH51">
-        <f t="shared" ref="DH51:DH82" si="97">DG51*DI51</f>
+        <f t="shared" ref="DH51:DH72" si="97">DG51*DI51</f>
         <v>1261.2154648391675</v>
       </c>
       <c r="DI51">
